--- a/房租計算表.xlsx
+++ b/房租計算表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952D5864-5297-1340-97B8-DC092686725D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D844F020-204A-0C45-8F4E-CE0310F4E942}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="93">
   <si>
     <t>房別</t>
   </si>
@@ -31,303 +31,345 @@
     <t>停車費用</t>
   </si>
   <si>
+    <t>53-101</t>
+  </si>
+  <si>
+    <t>53-102</t>
+  </si>
+  <si>
+    <t>53-103</t>
+  </si>
+  <si>
+    <t>53-201</t>
+  </si>
+  <si>
+    <t>53-202</t>
+  </si>
+  <si>
+    <t>53-203</t>
+  </si>
+  <si>
+    <t>53-301</t>
+  </si>
+  <si>
+    <t>53-302</t>
+  </si>
+  <si>
+    <t>53-303</t>
+  </si>
+  <si>
+    <t>53-401</t>
+  </si>
+  <si>
+    <t>53-402</t>
+  </si>
+  <si>
+    <t>53-403</t>
+  </si>
+  <si>
+    <t>53-501</t>
+  </si>
+  <si>
+    <t>中興路5-2</t>
+  </si>
+  <si>
+    <t>中興路5-3</t>
+  </si>
+  <si>
+    <t>中興路6-1</t>
+  </si>
+  <si>
+    <t>中興路6-2</t>
+  </si>
+  <si>
+    <t>中興路6-3</t>
+  </si>
+  <si>
+    <t>身分證字號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聯絡電話</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定繳費日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0931390202</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0912828719</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0955477917</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0917114946</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0986587794</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0917129802</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0925532796</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0933593379</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0932157091</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0968562035</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0929000100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0921736681</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0924782490</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0968084796</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0982396472</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0954665867</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0960202386</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0931817840</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t> H295582237</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t> E296702570</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t> B299197238</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t> E295368154</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t> F294011773</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t> D292268076</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t> C294012419</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t> A291513980</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t> F291191023</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t> G197836280</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t> H195904713</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t> D295938940</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t> D297187790</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t> A296108354</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t> A195782881</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t> A199222439</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t> C291882455</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t> A297714427</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A195727228</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>加人費用</t>
-  </si>
-  <si>
-    <t>53-101</t>
-  </si>
-  <si>
-    <t>53-102</t>
-  </si>
-  <si>
-    <t>53-103</t>
-  </si>
-  <si>
-    <t>53-201</t>
-  </si>
-  <si>
-    <t>53-202</t>
-  </si>
-  <si>
-    <t>53-203</t>
-  </si>
-  <si>
-    <t>53-301</t>
-  </si>
-  <si>
-    <t>53-302</t>
-  </si>
-  <si>
-    <t>53-303</t>
-  </si>
-  <si>
-    <t>53-401</t>
-  </si>
-  <si>
-    <t>53-402</t>
-  </si>
-  <si>
-    <t>53-403</t>
-  </si>
-  <si>
-    <t>53-501</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>林鳳君（小米）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>中興路5-1</t>
-  </si>
-  <si>
-    <t>中興路5-2</t>
-  </si>
-  <si>
-    <t>中興路5-3</t>
-  </si>
-  <si>
-    <t>中興路6-1</t>
-  </si>
-  <si>
-    <t>中興路6-2</t>
-  </si>
-  <si>
-    <t>中興路6-3</t>
-  </si>
-  <si>
-    <t>身分證字號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>聯絡電話</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定繳費日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0931390202</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0912828719</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0955477917</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0917114946</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0986587794</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0917129802</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0925532796</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0933593379</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0932157091</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0968562035</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0929000100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0921736681</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0924782490</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0968084796</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0982396472</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0954665867</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0960202386</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0931817840</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黃政達</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t> H295582237</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李美瑜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t> E296702570</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>林馥白</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t> B299197238</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔡宛財</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t> E295368154</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>方政勳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t> F294011773</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黃志皓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t> D292268076</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>林宜君</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t> C294012419</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王泰水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t> A291513980</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>韓凱琳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t> F291191023</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>林宛君</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t> G197836280</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>閻秋玟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t> H195904713</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>林瑋新</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t> D295938940</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳慶萍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t> D297187790</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔡佳茵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t> A296108354</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>劉宗翰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t> A195782881</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王美志</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t> A199222439</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鍾思翰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t> C291882455</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>林瑞岳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t> A297714427</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李美平</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A195727228</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龍新新村95-3F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃永潁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龍新新村95-2F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁信凱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龍新新村95-1F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李國明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中興路150弄6號5樓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>呂黃捷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中興路150弄6號6樓601室</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹勳亨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王偉任</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳冠澔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾雅玲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李品誼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳威廷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>張雅婷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬佳倫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄭翊誠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王品岳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖述旻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>張志嘉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>賴奕蒼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羅凱軒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>連瑜富</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉京任</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳昆昕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李乃韻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>柳淑芬</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -359,12 +401,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -403,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -411,6 +459,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -749,16 +798,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="5" width="12.3984375" customWidth="1"/>
-    <col min="6" max="8" width="14.19921875" customWidth="1"/>
+    <col min="2" max="2" width="15.19921875" customWidth="1"/>
+    <col min="3" max="5" width="12.3984375" customWidth="1"/>
+    <col min="6" max="7" width="14.19921875" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -772,19 +824,19 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -792,28 +844,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>5700</v>
+        <v>6500</v>
       </c>
       <c r="D2">
-        <v>700</v>
-      </c>
-      <c r="E2">
-        <v>200</v>
+        <v>1000</v>
+      </c>
+      <c r="E2" s="3">
+        <v>100</v>
       </c>
       <c r="F2">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" t="s">
-        <v>46</v>
+        <v>75</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -821,28 +873,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>6000</v>
       </c>
       <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3">
+        <v>700</v>
+      </c>
+      <c r="E3" s="3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>48</v>
+        <v>76</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -850,28 +902,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>5700</v>
+        <v>6000</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
+        <v>5</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" t="s">
-        <v>50</v>
+        <v>77</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -879,28 +931,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="D5">
-        <v>100</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" t="s">
-        <v>52</v>
+        <v>78</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -908,28 +960,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="D6">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="3">
         <v>100</v>
       </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
       <c r="F6">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" t="s">
-        <v>54</v>
+        <v>79</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -937,28 +989,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>6000</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
+      <c r="G7" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" t="s">
-        <v>56</v>
+        <v>80</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -966,28 +1018,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="D8">
-        <v>200</v>
-      </c>
-      <c r="E8">
-        <v>400</v>
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" t="s">
-        <v>58</v>
+        <v>81</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -995,28 +1047,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>6700</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6100</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>100</v>
       </c>
       <c r="F9">
-        <v>29</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" t="s">
-        <v>60</v>
+        <v>82</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1024,7 +1076,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>5700</v>
@@ -1032,20 +1084,20 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10">
-        <v>200</v>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>35</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" t="s">
-        <v>62</v>
+        <v>83</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1053,28 +1105,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="D11">
-        <v>700</v>
-      </c>
-      <c r="E11">
+        <v>1500</v>
+      </c>
+      <c r="E11" s="3">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" t="s">
-        <v>64</v>
+        <v>84</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1082,28 +1134,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>5700</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
+        <v>6000</v>
+      </c>
+      <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="E12" s="3">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="G12" t="s">
-        <v>37</v>
+        <v>18</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12" t="s">
-        <v>66</v>
+        <v>85</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1111,28 +1163,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>6700</v>
+        <v>6000</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13">
-        <v>0</v>
+      <c r="E13" s="3">
+        <v>100</v>
       </c>
       <c r="F13">
-        <v>4</v>
-      </c>
-      <c r="G13" t="s">
-        <v>38</v>
+        <v>9</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" t="s">
-        <v>68</v>
+        <v>86</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1140,28 +1192,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>800</v>
+        <v>15</v>
+      </c>
+      <c r="C14" s="3">
+        <v>6000</v>
       </c>
       <c r="D14">
-        <v>700</v>
-      </c>
-      <c r="E14">
-        <v>200</v>
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="G14" t="s">
-        <v>39</v>
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" t="s">
-        <v>70</v>
+        <v>87</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1169,28 +1221,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C15">
-        <v>5700</v>
+        <v>11000</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>6</v>
-      </c>
-      <c r="G15" t="s">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" t="s">
-        <v>72</v>
+        <v>63</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1198,28 +1250,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16">
-        <v>6700</v>
+        <v>16</v>
+      </c>
+      <c r="C16" s="3">
+        <v>8000</v>
       </c>
       <c r="D16">
-        <v>500</v>
-      </c>
-      <c r="E16">
-        <v>200</v>
-      </c>
-      <c r="F16">
-        <v>7</v>
-      </c>
-      <c r="G16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" t="s">
-        <v>73</v>
-      </c>
-      <c r="I16" t="s">
-        <v>74</v>
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>19</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1227,28 +1279,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17">
-        <v>5700</v>
+        <v>17</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6000</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17">
-        <v>200</v>
-      </c>
-      <c r="F17">
-        <v>8</v>
-      </c>
-      <c r="G17" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17" t="s">
-        <v>76</v>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>15</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1256,28 +1308,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18">
-        <v>6700</v>
+        <v>18</v>
+      </c>
+      <c r="C18" s="3">
+        <v>10000</v>
       </c>
       <c r="D18">
-        <v>700</v>
-      </c>
-      <c r="E18">
-        <v>200</v>
-      </c>
-      <c r="F18">
-        <v>9</v>
-      </c>
-      <c r="G18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" t="s">
-        <v>78</v>
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>16</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1285,28 +1337,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19">
-        <v>5700</v>
+        <v>19</v>
+      </c>
+      <c r="C19" s="3">
+        <v>8000</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19">
-        <v>200</v>
-      </c>
-      <c r="F19">
-        <v>10</v>
-      </c>
-      <c r="G19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" t="s">
-        <v>79</v>
-      </c>
-      <c r="I19" t="s">
-        <v>80</v>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>17</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1314,28 +1366,173 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>18</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21">
+        <v>4500</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21">
+        <v>27</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22">
+        <v>6000</v>
+      </c>
+      <c r="D22">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23">
+        <v>8100</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="C20">
-        <v>6700</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>200</v>
-      </c>
-      <c r="F20">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" t="s">
-        <v>82</v>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24">
+        <v>6000</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25">
+        <v>6000</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>27</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
